--- a/work/tablero.xlsx
+++ b/work/tablero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gonzaloplaza/Documents/1_proyectos/titan/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF69C9D3-F5A9-A84E-BBCF-C8CC6C9E4C6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B22CE15-A9AB-5D43-822F-C248106027D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{EF6B5A77-595E-8540-A787-E4EE8C257672}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>002_decision_tree_basic.ipynb</t>
   </si>
   <si>
-    <t>La utilización de un decision tree básico, sin parámetros ni nada</t>
+    <t>La utilización de un decision tree básico, sin parámetros ni nada. Sólo se toma la variable Pclass</t>
   </si>
 </sst>
 </file>
@@ -424,14 +424,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.1640625" customWidth="1"/>
+    <col min="4" max="4" width="80.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>

--- a/work/tablero.xlsx
+++ b/work/tablero.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gonzaloplaza/Documents/1_proyectos/titan/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B22CE15-A9AB-5D43-822F-C248106027D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D23B7-D8F0-AF43-8813-C717E3689632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{EF6B5A77-595E-8540-A787-E4EE8C257672}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="resultados" sheetId="1" r:id="rId1"/>
+    <sheet name="planning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>fecha</t>
   </si>
@@ -36,9 +37,6 @@
     <t>script</t>
   </si>
   <si>
-    <t>20201026_001_gender_submit.csv</t>
-  </si>
-  <si>
     <t>001_gender_submit.ipynb</t>
   </si>
   <si>
@@ -63,13 +61,61 @@
     <t>decision_tree</t>
   </si>
   <si>
-    <t>20201118_002_decision_tree_basico.csv</t>
-  </si>
-  <si>
     <t>002_decision_tree_basic.ipynb</t>
   </si>
   <si>
     <t>La utilización de un decision tree básico, sin parámetros ni nada. Sólo se toma la variable Pclass</t>
+  </si>
+  <si>
+    <t>003_decision_tree_basic_2.ipynb</t>
+  </si>
+  <si>
+    <t>002_decision_tree_basico.csv</t>
+  </si>
+  <si>
+    <t>001_gender_submit.csv</t>
+  </si>
+  <si>
+    <t>003_decision_tree_basico_a.csv</t>
+  </si>
+  <si>
+    <t>003_decision_tree_basico_b.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevamente un decision tree básico, pero con 2 variables (PCLASS, SEX). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevamente un decision tree básico, pero con 2 variables (PCLASS, SEX, AGE). </t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Hacer experimento con un decisión tree, con todas las variables posibles imputadas, sin ninguna configuración de hiperparámetros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. </t>
+  </si>
+  <si>
+    <t>Hacer un experimento con el mismo dataset anterior, pero mirando la configuración de hiperparámetros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevamente un decision tree básico, pero con 7 variables ['Pclass','Sex','Age','SibSp','Parch','Fare','Embarked'] </t>
+  </si>
+  <si>
+    <t>004_decision_tree_basic_3.ipynb</t>
+  </si>
+  <si>
+    <t>004_decision_tree_basico_a.csv</t>
+  </si>
+  <si>
+    <t>Desde este punto, se comienza a generar overfitting</t>
+  </si>
+  <si>
+    <t>Desde aquí, terminamos overfitting. Lo tratamos de controlar con hiperparámetros</t>
+  </si>
+  <si>
+    <t>comentarios_experimento</t>
   </si>
 </sst>
 </file>
@@ -421,23 +467,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B783B8-67CE-9844-91FD-DF0EBBDA9179}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,59 +495,168 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>20201119</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>0.76549999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>20201119</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>0.66039999999999999</v>
       </c>
       <c r="G3">
         <v>0.67220000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>20201120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>0.746</v>
+      </c>
+      <c r="G4">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>20201120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0.75370000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.73680000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>20201120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>0.76829999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE03F6A-02FC-E74E-8F6E-8A9ECC430ECA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/work/tablero.xlsx
+++ b/work/tablero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gonzaloplaza/Documents/1_proyectos/titan/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D23B7-D8F0-AF43-8813-C717E3689632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D556A4C3-0ECF-C440-BE44-44662F963CA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{EF6B5A77-595E-8540-A787-E4EE8C257672}"/>
   </bookViews>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B783B8-67CE-9844-91FD-DF0EBBDA9179}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -481,7 +481,7 @@
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -619,10 +619,10 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>0.76829999999999998</v>
+        <v>0.75739999999999996</v>
       </c>
       <c r="G6">
-        <v>0.72960000000000003</v>
+        <v>0.73204999999999998</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>

--- a/work/tablero.xlsx
+++ b/work/tablero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gonzaloplaza/Documents/1_proyectos/titan/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D556A4C3-0ECF-C440-BE44-44662F963CA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEA5EA7-70FB-6741-8BFB-7D86D138EACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{EF6B5A77-595E-8540-A787-E4EE8C257672}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>fecha</t>
   </si>
@@ -55,9 +55,6 @@
     <t>public_leaderboard</t>
   </si>
   <si>
-    <t>training_accuracy</t>
-  </si>
-  <si>
     <t>decision_tree</t>
   </si>
   <si>
@@ -116,12 +113,69 @@
   </si>
   <si>
     <t>comentarios_experimento</t>
+  </si>
+  <si>
+    <t>005_decision_tree_hiper_1.csv</t>
+  </si>
+  <si>
+    <t>005_decision_tree_hiper_1.ipynb</t>
+  </si>
+  <si>
+    <t>Primer intento de calibración de hiperparámetros, mediante método de gridsearch a mano</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>tree.DecisionTreeClassifier(criterion = 'gini', max_depth=6, random_state=1, min_samples_leaf=38)</t>
+  </si>
+  <si>
+    <t>006_random_forest_basico_1.ipynb</t>
+  </si>
+  <si>
+    <t>006_random_forest_basico_1.csv</t>
+  </si>
+  <si>
+    <t>testing_accuracy</t>
+  </si>
+  <si>
+    <t>testing_auc</t>
+  </si>
+  <si>
+    <t>randomforest</t>
+  </si>
+  <si>
+    <t>Los hiperparámetros lograron controlar el overfitting, sin embargo, los resultados no son mejores que el modelo básico</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(random_state=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primer intento Randomforest. Sin calibración de parámetros, 7 variables ['Pclass','Sex','Age','SibSp','Parch','Fare','Embarked'] </t>
+  </si>
+  <si>
+    <t>testing_entropia_cruzada</t>
+  </si>
+  <si>
+    <t>007_random_forest_basico_2.csv</t>
+  </si>
+  <si>
+    <t>007_random_forest_basico_2.ipynb</t>
+  </si>
+  <si>
+    <t>Segundo intento de RandomForest. Sin calibración de parámetros. Se toman sólo 2 variables (PCLASS, SEX), para ver cómo se comporta respecto al 003</t>
+  </si>
+  <si>
+    <t>Igual que 003!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -151,8 +205,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,24 +522,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B783B8-67CE-9844-91FD-DF0EBBDA9179}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,24 +556,33 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>20201119</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -523,109 +590,202 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2">
+      <c r="J2" s="1">
         <v>0.76549999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>20201119</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
         <v>0.66039999999999999</v>
       </c>
-      <c r="G3">
+      <c r="J3" s="1">
         <v>0.67220000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>20201120</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
         <v>0.746</v>
       </c>
-      <c r="G4">
+      <c r="J4" s="1">
         <v>0.77510000000000001</v>
       </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>20201120</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
         <v>0.75370000000000004</v>
       </c>
-      <c r="G5">
+      <c r="J5" s="1">
         <v>0.73680000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>20201120</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
         <v>0.75739999999999996</v>
       </c>
-      <c r="G6">
+      <c r="J6" s="1">
         <v>0.73204999999999998</v>
       </c>
-      <c r="H6" t="s">
-        <v>28</v>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>20201120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.77029999999999998</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>20201121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="H8">
+        <v>0.8407</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.75119000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>20201121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="H9">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -645,18 +805,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
